--- a/DesignDoc.xlsx
+++ b/DesignDoc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="35256" yWindow="12" windowWidth="20952" windowHeight="9720" activeTab="5"/>
+    <workbookView xWindow="37128" yWindow="12" windowWidth="20952" windowHeight="9720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌总览" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="917">
   <si>
     <t>氏族</t>
   </si>
@@ -7712,6 +7712,14 @@
   </si>
   <si>
     <t>彻底排除ObsessingShard，看哪里会出错。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>把部分牌加到洞窟里面去</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能和StoryEventPool有关。比较难。</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -12561,10 +12569,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12645,6 +12653,17 @@
       </c>
       <c r="B7" s="3" t="s">
         <v>914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>916</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDoc.xlsx
+++ b/DesignDoc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="37128" yWindow="12" windowWidth="20952" windowHeight="9720" activeTab="5"/>
+    <workbookView xWindow="38064" yWindow="12" windowWidth="20952" windowHeight="9720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌总览" sheetId="1" r:id="rId1"/>
@@ -12572,7 +12572,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12626,7 +12626,9 @@
       <c r="C4" s="10" t="s">
         <v>910</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="47">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">

--- a/DesignDoc.xlsx
+++ b/DesignDoc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38064" yWindow="12" windowWidth="20952" windowHeight="9720" activeTab="5"/>
+    <workbookView xWindow="39000" yWindow="12" windowWidth="20952" windowHeight="9720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌总览" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="勇者设计" sheetId="7" r:id="rId5"/>
     <sheet name="TODO-List" sheetId="6" r:id="rId6"/>
     <sheet name="CSV" sheetId="5" r:id="rId7"/>
+    <sheet name="CSV (2)" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">卡牌总览!$A$1:$H$40</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="952">
   <si>
     <t>氏族</t>
   </si>
@@ -4423,10 +4424,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>Upgrade_KnightMareEndlessBasic_Desc</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>Upgrade_KnightMareEndlessPre_Name</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -6284,6 +6281,1609 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>狂热：本层友方单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>血。灵魂附魔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：抽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>费。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以作为主要输出手段；但需要确保灵魂足够。需要一段时间的启动。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是那个牺牲的Effect有问题。可能需要重写一个Sacrifice。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> +{[effect0.power]}[attack]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害护盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> {[effect1.status0.power]}&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>When you summon your first &lt;b&gt;Ghost&lt;/b&gt; each turn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Draw 1 card and gain 1 [ember].</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t start of turn deal 30 damage to the front enemy units on the floor with your champion.</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Relic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ProfaneCrossbow_Active</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ext</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profane Crossbow Active!</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>亵渎手弩触发！</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合首次召唤罪灵单位时，获得1[ember]并抽1张牌。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>敌方单位进入勇者所在层数时，获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>疯狂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，对勇者所在层数的前排单位造成30点伤害。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次施加&lt;b&gt;疯狂&lt;/b&gt;时，额外施加1层。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合首次打出祸患/天灾牌时，抽一张牌。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合抽+1张牌。回合开始时，将一张&lt;b&gt;消耗&lt;/b&gt;的&lt;b&gt;复仇碎片&lt;/b&gt;加入手牌。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>When you apply &lt;b&gt;Frantic&lt;/b&gt; to a unit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pply same stacks of &lt;b&gt;Rage&lt;/b&gt;.</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you apply &lt;b&gt;Frantic&lt;/b&gt; to a unit Apply same stacks of &lt;b&gt;Rage&lt;/b&gt;.</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次施加&lt;b&gt;疯狂&lt;/b&gt;时，施加等量的&lt;b&gt;狂怒&lt;/b&gt;。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply +1[capacity] &lt;b&gt;Multistrike 1&lt;/b&gt; to the first friendly unit sommoned each turn.</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合打出的首个友方单位获得+1[capacity]，&lt;b&gt;多重攻击 1&lt;/b&gt;。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draw +1 each turn. At start of turn add a &lt;b&gt;Vengeful Shard&lt;/b&gt; with &lt;b&gt;Exhaust&lt;/b&gt; to your draw pile.</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you play your first Blight/Scourge card of the turn Draw 1.</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade_ShadowLadyProfanityBasic_OnAttack_Desc</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>对本层非攻击目标的敌人施加&lt;b&gt;疯狂 {[effect0.status0.power]}&lt;/b&gt;，+{[effect0.power]}[attack]。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;Frantic {[effect0.status0.power]}&lt;/b&gt; +{[effect0.power]}[attack] to enemy units except the attacked one.</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Upgrade_ShadowLadyProfanityPre_On</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Desc</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Upgrade_ShadowLadyProfanityPro_On</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Desc</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻，2血</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>4攻，2血</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Illusion</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻影</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade_KnightMareIllusionBasic_Name</t>
+  </si>
+  <si>
+    <t>Upgrade_KnightMareIllusionPre_Name</t>
+  </si>
+  <si>
+    <t>Upgrade_KnightMareIllusionPro_Name</t>
+  </si>
+  <si>
+    <r>
+      <t>Upgrade_KnightMareAbyssBasic_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OnFanatic_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Desc</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Upgrade_KnightMareAbyssPre_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OnFanatic_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Desc</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Upgrade_KnightMareAbyssPro_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OnFanatic_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Desc</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>友方单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[effect1.power]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[attack]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{[effect2.power]}[health]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>灵魂强化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {[effect0.power]}&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：抽1张牌，+1[ember]。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">All friendly units </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[effect1.power]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[attack] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{[effect2.power]}[health] &lt;b&gt;Soul Enchant {[effect0.power]}&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Draw </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 card +1[ember].</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Give &lt;nobr&gt;&lt;b&gt;Soul {[effect0.status0.power]}&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+{[effect1.power]}[attack]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +{[effect2.power]}[health].</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给予 &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">灵魂 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{[effect0.status0.power]}&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+{[effect1.power]}[attack]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +{[effect2.power]}[health]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Soul </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enchant</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂强化</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hint_SoulEnchant_TooltipText</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hint_SoulEnchant_TooltipTitle</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduce x &lt;b&gt;Soul&lt;/b&gt; for additional ability.</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消耗相应层数的 &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灵魂&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">b&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>触发额外效果。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3攻，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>血。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5攻，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>血。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Upgrade_KnightMareIllusionBasic_OnHit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Desc</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Upgrade_KnightMareIllusionPre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_OnHit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Desc</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Upgrade_KnightMareIllusionPro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_OnHit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Desc</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> +{[effect1.power]}[attack] +{[effect2.power]}[health]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>灵魂强化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {[effect0.power]}&lt;/b&gt;: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吸血</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {[effect0.status0.power]}&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain +{[effect1.power]}[attack] +{[effect2.power]}[health]. &lt;b&gt;Soul Enchant {[effect0.power]}&lt;/b&gt;: Gain &lt;b&gt;Lifesteal {[effect0.status0.power]}&lt;/b&gt;.</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正CardEffectSpawnSelf</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考复制的那个。但复制的默认会复制在后排，因此需要参照SpawnSelf的逻辑进行修正。好好利用起TestEffect的效果。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Endless</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线的实现</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>在完成上面一条之后尝试该线。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SoulBlust</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的Status可以不注册。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>彻底排除ObsessingShard，看哪里会出错。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>把部分牌加到洞窟里面去</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能和StoryEventPool有关。比较难。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Upgrade_KnightMareEndlessBasic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_OnDeath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Desc</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亡语：灵魂附魔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：前排召唤一个本单位的复制品，获得多重1。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>附魔3，多重2</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>附魔4，多重4</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;Soul Enchant {[effect0.power]}&lt;/b&gt;: Create one copy of self in the front of room. Gain &lt;b&gt;Multi Strike 1&lt;/b&gt;.</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>灵魂强化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {[effect0.power]}&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：本层前排召唤一个本单位的复制品。获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多重攻击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1&lt;/b&gt;.</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;Soul Enchant {[effect0.power]}&lt;/b&gt;: Create one copy of self in the front of room. Gain &lt;b&gt;Multi Strike 2&lt;/b&gt;.</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>灵魂强化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {[effect0.power]}&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：本层前排召唤一个本单位的复制品。获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多重攻击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2&lt;/b&gt;.</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;Soul Enchant {[effect0.power]}&lt;/b&gt;: Create one copy of self in the front of room. Gain &lt;b&gt;Multi Strike 4&lt;/b&gt;.</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>灵魂强化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {[effect0.power]}&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：本层前排召唤一个本单位的复制品。获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多重攻击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4&lt;/b&gt;.</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>问号：盾能不能触发复仇？</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>复仇：</t>
     </r>
     <r>
@@ -6360,27 +7960,171 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>盾。</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>狂热：本层友方单位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+      <t>吸血。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码完成</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码暂时完成</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个Add是否必要？需要测试一下。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：1.召唤时加牌，2张。2.血量减少到2。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MindDomaination</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>未实现。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deal {[effect0.power]} damage. Add 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;Vengeful Shard&lt;/b&gt; with &lt;b&gt;Exhaust&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to your discard deck.</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;b&gt;Descend&lt;/b&gt; a unit and apply &lt;b&gt;Frantic {[effect1.status0.power]}&lt;/b&gt;. Add 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;Vengeful Shard&lt;/b&gt; with &lt;b&gt;Exhaust&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to your hand.</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;Vengeful Shard&lt;/b&gt; with &lt;b&gt;Exhaust&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the discard pile. Draw {[effect1.power]} card</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;Vengeful Shard&lt;/b&gt; with &lt;b&gt;Exhaust&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the draw pile. +{[effect1.power]}[ember] every turn.</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每回合抽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>+1</t>
     </r>
@@ -6388,37 +8132,161 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>攻，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>血。灵魂附魔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>张牌。回合开始时，将一张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消耗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复仇碎片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加入手牌。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对所有敌方单位造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {[effect0.power]} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伤害。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
@@ -6426,18 +8294,1211 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：抽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消耗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复仇碎片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>卡牌加入弃牌堆。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使一个单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下降</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。施加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>疯狂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {[effect1.status0.power]}&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消耗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复仇碎片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加入手牌。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消耗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复仇碎片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加入弃牌堆。抽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {[effect1.power]} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>张牌。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对一个友方单位施加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>横扫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消耗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复仇碎片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加入手牌。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Apply &lt;b&gt;Sweep&lt;/b&gt;. Add 3 &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vengeful</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Shard&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with &lt;b&gt;Exhaust&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to your hand.</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;Vengeful Shard&lt;/b&gt; with &lt;b&gt;Exhaust&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to your hand.</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蔓延</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-{[effect1.power]}[health]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消耗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复仇碎片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加入抽牌堆。每回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +{[effect1.power]}[ember]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有Ghost的Upgrade。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要添加相应的描述。同时召唤时的效果需要考虑增加一点。另外，Description的描述是不是会显示在Character上面？应该做一次测试。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Subunit_GluttonyGhost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Upgrade_Desc</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply &lt;b&gt;Regen {[effect0.status0.power]}&lt;/b&gt; to friendly units.</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add 1 &lt;b&gt;Vengeful Shard&lt;/b&gt; with &lt;b&gt;Exhaust&lt;/b&gt; to your hand. &lt;b&gt;Fanatic&lt;/b&gt;: Apply &lt;b&gt;Regen 2&lt;/b&gt; to friendly units.</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消耗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复仇碎片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加入手牌。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>友方单位获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>再生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {[effect0.status0.power]}&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
@@ -6445,61 +9506,68 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>费。</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以作为主要输出手段；但需要确保灵魂足够。需要一段时间的启动。</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要是那个牺牲的Effect有问题。可能需要重写一个Sacrifice。</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> +{[effect0.power]}[attack]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消耗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
       </rPr>
       <t>&lt;b&gt;</t>
     </r>
@@ -6507,28 +9575,114 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>伤害护盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> {[effect1.status0.power]}&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复仇碎片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分别加入手牌和抽牌堆。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>狂热</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：友方单位获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>再生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>。</t>
     </r>
@@ -6536,81 +9690,8 @@
   </si>
   <si>
     <r>
-      <t>When you summon your first &lt;b&gt;Ghost&lt;/b&gt; each turn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Draw 1 card and gain 1 [ember].</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t start of turn deal 30 damage to the front enemy units on the floor with your champion.</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Relic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_ProfaneCrossbow_Active</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ext</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Profane Crossbow Active!</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>亵渎手弩触发！</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合首次召唤罪灵单位时，获得1[ember]并抽1张牌。</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
+      <t>CSV</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -6620,1106 +9701,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>敌方单位进入勇者所在层数时，获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>疯狂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时，对勇者所在层数的前排单位造成30点伤害。</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次施加&lt;b&gt;疯狂&lt;/b&gt;时，额外施加1层。</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合首次打出祸患/天灾牌时，抽一张牌。</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合抽+1张牌。回合开始时，将一张&lt;b&gt;消耗&lt;/b&gt;的&lt;b&gt;复仇碎片&lt;/b&gt;加入手牌。</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>When you apply &lt;b&gt;Frantic&lt;/b&gt; to a unit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pply same stacks of &lt;b&gt;Rage&lt;/b&gt;.</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>When you apply &lt;b&gt;Frantic&lt;/b&gt; to a unit Apply same stacks of &lt;b&gt;Rage&lt;/b&gt;.</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次施加&lt;b&gt;疯狂&lt;/b&gt;时，施加等量的&lt;b&gt;狂怒&lt;/b&gt;。</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apply +1[capacity] &lt;b&gt;Multistrike 1&lt;/b&gt; to the first friendly unit sommoned each turn.</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合打出的首个友方单位获得+1[capacity]，&lt;b&gt;多重攻击 1&lt;/b&gt;。</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Draw +1 each turn. At start of turn add a &lt;b&gt;Vengeful Shard&lt;/b&gt; with &lt;b&gt;Exhaust&lt;/b&gt; to your draw pile.</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>When you play your first Blight/Scourge card of the turn Draw 1.</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upgrade_ShadowLadyProfanityBasic_OnAttack_Desc</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>对本层非攻击目标的敌人施加&lt;b&gt;疯狂 {[effect0.status0.power]}&lt;/b&gt;，+{[effect0.power]}[attack]。</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Apply</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;b&gt;Frantic {[effect0.status0.power]}&lt;/b&gt; +{[effect0.power]}[attack] to enemy units except the attacked one.</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Upgrade_ShadowLadyProfanityPre_On</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Attack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_Desc</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Upgrade_ShadowLadyProfanityPro_On</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Attack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_Desc</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>攻</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>攻，2血</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>4攻，2血</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Illusion</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻影</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upgrade_KnightMareIllusionBasic_Name</t>
-  </si>
-  <si>
-    <t>Upgrade_KnightMareIllusionPre_Name</t>
-  </si>
-  <si>
-    <t>Upgrade_KnightMareIllusionPro_Name</t>
-  </si>
-  <si>
-    <r>
-      <t>Upgrade_KnightMareAbyssBasic_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OnFanatic_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Desc</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Upgrade_KnightMareAbyssPre_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OnFanatic_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Desc</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Upgrade_KnightMareAbyssPro_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OnFanatic_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Desc</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>友方单位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[effect1.power]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[attack]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{[effect2.power]}[health]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>灵魂强化</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> {[effect0.power]}&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：抽1张牌，+1[ember]。</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">All friendly units </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[effect1.power]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[attack] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{[effect2.power]}[health] &lt;b&gt;Soul Enchant {[effect0.power]}&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Draw </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1 card +1[ember].</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Give &lt;nobr&gt;&lt;b&gt;Soul {[effect0.status0.power]}&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+{[effect1.power]}[attack]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> +{[effect2.power]}[health].</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>给予 &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">灵魂 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{[effect0.status0.power]}&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+{[effect1.power]}[attack]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> +{[effect2.power]}[health]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Soul </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Enchant</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵魂强化</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hint_SoulEnchant_TooltipText</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hint_SoulEnchant_TooltipTitle</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reduce x &lt;b&gt;Soul&lt;/b&gt; for additional ability.</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>消耗相应层数的 &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>灵魂&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">b&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>触发额外效果。</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3攻，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>血。</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5攻，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>血。</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Upgrade_KnightMareIllusionBasic_OnHit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Desc</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Upgrade_KnightMareIllusionPre</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_OnHit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_Desc</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Upgrade_KnightMareIllusionPro</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_OnHit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_Desc</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> +{[effect1.power]}[attack] +{[effect2.power]}[health]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>灵魂强化</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> {[effect0.power]}&lt;/b&gt;: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>吸血</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> {[effect0.status0.power]}&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gain +{[effect1.power]}[attack] +{[effect2.power]}[health]. &lt;b&gt;Soul Enchant {[effect0.power]}&lt;/b&gt;: Gain &lt;b&gt;Lifesteal {[effect0.status0.power]}&lt;/b&gt;.</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>多重2</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>多重1</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>亡语：灵魂附魔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：前排召唤一个本单位的复制品，获得+10攻。</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改：1.召唤时加牌，2张。2.血量减少。</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>修正CardEffectSpawnSelf</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考复制的那个。但复制的默认会复制在后排，因此需要参照SpawnSelf的逻辑进行修正。好好利用起TestEffect的效果。</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Endless</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>线的实现</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>在完成上面一条之后尝试该线。</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SoulBlust</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的Status可以不注册。</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>彻底排除ObsessingShard，看哪里会出错。</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>把部分牌加到洞窟里面去</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能和StoryEventPool有关。比较难。</t>
+      <t>正在修改。</t>
+    </r>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -10407,7 +12390,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H21" t="s">
         <v>16</v>
@@ -11672,7 +13655,7 @@
         <v>297</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>259</v>
@@ -11880,7 +13863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11977,10 +13960,10 @@
         <v>121</v>
       </c>
       <c r="B18" s="48" t="s">
+        <v>826</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>827</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>828</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>122</v>
@@ -12119,10 +14102,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12135,7 +14118,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -12145,27 +14128,27 @@
     </row>
     <row r="2" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
+        <v>817</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>820</v>
+      </c>
+      <c r="C2" s="57" t="s">
         <v>818</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="D2" s="57" t="s">
+        <v>819</v>
+      </c>
+      <c r="E2" s="58" t="s">
         <v>821</v>
       </c>
-      <c r="C2" s="57" t="s">
-        <v>819</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>820</v>
-      </c>
-      <c r="E2" s="58" t="s">
+      <c r="F2" s="58" t="s">
         <v>822</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B3" s="45">
         <v>5</v>
@@ -12177,15 +14160,15 @@
         <v>3</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B4" s="45">
         <v>15</v>
@@ -12197,10 +14180,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -12216,7 +14199,7 @@
       </c>
       <c r="E5" s="69"/>
       <c r="F5" s="52" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -12232,7 +14215,7 @@
       </c>
       <c r="E6" s="69"/>
       <c r="F6" s="51" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -12249,10 +14232,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="68" t="s">
+        <v>832</v>
+      </c>
+      <c r="F7" s="54" t="s">
         <v>833</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -12268,7 +14251,7 @@
       </c>
       <c r="E8" s="69"/>
       <c r="F8" s="52" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -12284,12 +14267,12 @@
       </c>
       <c r="E9" s="69"/>
       <c r="F9" s="52" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B10" s="45">
         <v>10</v>
@@ -12301,10 +14284,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="68" t="s">
+        <v>835</v>
+      </c>
+      <c r="F10" s="54" t="s">
         <v>836</v>
-      </c>
-      <c r="F10" s="54" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -12320,7 +14303,7 @@
       </c>
       <c r="E11" s="69"/>
       <c r="F11" s="52" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -12336,12 +14319,12 @@
       </c>
       <c r="E12" s="69"/>
       <c r="F12" s="52" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="71" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B14" s="72"/>
       <c r="C14" s="72"/>
@@ -12351,27 +14334,27 @@
     </row>
     <row r="15" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55" t="s">
+        <v>817</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>820</v>
+      </c>
+      <c r="C15" s="55" t="s">
         <v>818</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="D15" s="55" t="s">
+        <v>819</v>
+      </c>
+      <c r="E15" s="56" t="s">
         <v>821</v>
       </c>
-      <c r="C15" s="55" t="s">
-        <v>819</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>820</v>
-      </c>
-      <c r="E15" s="56" t="s">
+      <c r="F15" s="56" t="s">
         <v>822</v>
-      </c>
-      <c r="F15" s="56" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B16" s="45">
         <v>0</v>
@@ -12383,15 +14366,15 @@
         <v>2</v>
       </c>
       <c r="E16" s="50" t="s">
+        <v>840</v>
+      </c>
+      <c r="F16" s="54" t="s">
         <v>841</v>
       </c>
-      <c r="F16" s="54" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="67" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B17" s="45">
         <v>5</v>
@@ -12403,13 +14386,13 @@
         <v>2</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F17" s="54" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67"/>
       <c r="B18" s="45">
         <v>10</v>
@@ -12422,10 +14405,10 @@
       </c>
       <c r="E18" s="69"/>
       <c r="F18" s="52" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="67"/>
       <c r="B19" s="45">
         <v>20</v>
@@ -12438,64 +14421,64 @@
       </c>
       <c r="E19" s="69"/>
       <c r="F19" s="60" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="67" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B20" s="45">
         <v>10</v>
       </c>
       <c r="C20" s="45">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D20" s="45">
         <v>2</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F20" s="54" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="66"/>
       <c r="B21" s="45">
         <v>15</v>
       </c>
       <c r="C21" s="45">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D21" s="45">
         <v>2</v>
       </c>
       <c r="E21" s="69"/>
       <c r="F21" s="64" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="66"/>
       <c r="B22" s="45">
         <v>20</v>
       </c>
       <c r="C22" s="45">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D22" s="45">
         <v>2</v>
       </c>
       <c r="E22" s="69"/>
       <c r="F22" s="64" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="67" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B23" s="45">
         <v>0</v>
@@ -12507,13 +14490,16 @@
         <v>2</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F23" s="54" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+        <v>922</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="66"/>
       <c r="B24" s="45">
         <v>0</v>
@@ -12526,10 +14512,10 @@
       </c>
       <c r="E24" s="69"/>
       <c r="F24" s="63" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="66"/>
       <c r="B25" s="45">
         <v>0</v>
@@ -12542,7 +14528,7 @@
       </c>
       <c r="E25" s="69"/>
       <c r="F25" s="63" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
   </sheetData>
@@ -12569,10 +14555,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12583,13 +14569,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>813</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>814</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12597,34 +14583,38 @@
         <v>4</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>908</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>927</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>851</v>
-      </c>
-      <c r="D3" s="47"/>
+        <v>849</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="D4" s="47">
         <v>1</v>
@@ -12635,10 +14625,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>912</v>
+        <v>906</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12646,7 +14639,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>913</v>
+        <v>907</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12654,7 +14650,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>914</v>
+        <v>908</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12662,10 +14661,43 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>916</v>
+        <v>910</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="47" t="s">
+        <v>928</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>951</v>
       </c>
     </row>
   </sheetData>
@@ -12677,10 +14709,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H229"/>
+  <dimension ref="A1:H230"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12845,10 +14877,10 @@
         <v>354</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12873,10 +14905,10 @@
         <v>354</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12901,10 +14933,10 @@
         <v>354</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12929,24 +14961,24 @@
         <v>354</v>
       </c>
       <c r="G18" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>754</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B19" s="31" t="s">
         <v>354</v>
       </c>
       <c r="G19" s="46" t="s">
+        <v>809</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>810</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12957,10 +14989,10 @@
         <v>354</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H20" s="59" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12971,24 +15003,24 @@
         <v>354</v>
       </c>
       <c r="G21" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>754</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="46" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>354</v>
       </c>
       <c r="G22" s="46" t="s">
+        <v>809</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>810</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12999,10 +15031,10 @@
         <v>354</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H23" s="59" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13013,24 +15045,24 @@
         <v>354</v>
       </c>
       <c r="G24" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>754</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
+        <v>808</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G25" s="46" t="s">
         <v>809</v>
       </c>
-      <c r="B25" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="G25" s="46" t="s">
+      <c r="H25" s="8" t="s">
         <v>810</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13041,10 +15073,10 @@
         <v>354</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H26" s="59" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13055,24 +15087,24 @@
         <v>354</v>
       </c>
       <c r="G27" s="35" t="s">
+        <v>755</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>756</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G28" s="48" t="s">
         <v>872</v>
       </c>
-      <c r="B28" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="G28" s="48" t="s">
-        <v>874</v>
-      </c>
       <c r="H28" s="10" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13083,24 +15115,24 @@
         <v>354</v>
       </c>
       <c r="G29" s="35" t="s">
+        <v>755</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>756</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B30" s="31" t="s">
         <v>354</v>
       </c>
       <c r="G30" s="48" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13111,24 +15143,24 @@
         <v>354</v>
       </c>
       <c r="G31" s="35" t="s">
+        <v>755</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>756</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B32" s="31" t="s">
         <v>354</v>
       </c>
       <c r="G32" s="48" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13142,26 +15174,26 @@
         <v>397</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
+        <v>799</v>
+      </c>
+      <c r="B35" s="34" t="s">
         <v>800</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="G35" s="43" t="s">
         <v>801</v>
       </c>
-      <c r="G35" s="43" t="s">
+      <c r="H35" s="10" t="s">
         <v>802</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>354</v>
@@ -13175,24 +15207,24 @@
         <v>354</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>354</v>
       </c>
       <c r="G38" s="48" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13203,24 +15235,24 @@
         <v>354</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
+        <v>884</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G40" s="48" t="s">
+        <v>887</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>886</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="G40" s="48" t="s">
-        <v>889</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13231,24 +15263,24 @@
         <v>354</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
+        <v>885</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G42" s="48" t="s">
         <v>887</v>
       </c>
-      <c r="B42" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="G42" s="48" t="s">
-        <v>889</v>
-      </c>
       <c r="H42" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13262,20 +15294,26 @@
         <v>130</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="32" t="s">
-        <v>724</v>
+      <c r="A44" s="48" t="s">
+        <v>911</v>
       </c>
       <c r="B44" s="31" t="s">
         <v>354</v>
+      </c>
+      <c r="G44" s="48" t="s">
+        <v>915</v>
+      </c>
+      <c r="H44" s="48" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B45" s="31" t="s">
         <v>354</v>
@@ -13284,20 +15322,26 @@
         <v>130</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B46" s="31" t="s">
         <v>354</v>
+      </c>
+      <c r="G46" s="48" t="s">
+        <v>917</v>
+      </c>
+      <c r="H46" s="48" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B47" s="31" t="s">
         <v>354</v>
@@ -13306,99 +15350,105 @@
         <v>130</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B48" s="31" t="s">
         <v>354</v>
+      </c>
+      <c r="G48" s="48" t="s">
+        <v>919</v>
+      </c>
+      <c r="H48" s="48" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>354</v>
       </c>
       <c r="G49" s="48" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B50" s="31" t="s">
         <v>354</v>
       </c>
       <c r="G50" s="48" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H50" s="48" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>354</v>
       </c>
       <c r="G51" s="48" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
+        <v>899</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>902</v>
+      </c>
+      <c r="H52" s="48" t="s">
         <v>901</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="G52" s="48" t="s">
-        <v>904</v>
-      </c>
-      <c r="H52" s="48" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B53" s="31" t="s">
         <v>354</v>
       </c>
       <c r="G53" s="48" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
+        <v>900</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G54" s="48" t="s">
         <v>902</v>
       </c>
-      <c r="B54" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="G54" s="48" t="s">
-        <v>904</v>
-      </c>
       <c r="H54" s="48" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13458,11 +15508,11 @@
       <c r="B61" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>408</v>
+      <c r="G61" s="48" t="s">
+        <v>929</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13487,10 +15537,10 @@
         <v>354</v>
       </c>
       <c r="G63" s="48" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H63" s="61" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13640,11 +15690,11 @@
       <c r="B75" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="G75" s="35" t="s">
-        <v>759</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>440</v>
+      <c r="G75" s="48" t="s">
+        <v>930</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13725,10 +15775,10 @@
         <v>354</v>
       </c>
       <c r="G82" s="36" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13780,11 +15830,11 @@
       <c r="B86" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>462</v>
+      <c r="G86" s="48" t="s">
+        <v>931</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13808,11 +15858,11 @@
       <c r="B88" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>468</v>
+      <c r="G88" s="48" t="s">
+        <v>932</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13840,7 +15890,7 @@
         <v>473</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13921,10 +15971,10 @@
         <v>354</v>
       </c>
       <c r="G96" s="44" t="s">
+        <v>803</v>
+      </c>
+      <c r="H96" s="7" t="s">
         <v>804</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13976,11 +16026,11 @@
       <c r="B101" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>501</v>
+      <c r="G101" s="48" t="s">
+        <v>938</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14005,10 +16055,10 @@
         <v>354</v>
       </c>
       <c r="G103" s="36" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14036,7 +16086,7 @@
         <v>510</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14117,10 +16167,10 @@
         <v>354</v>
       </c>
       <c r="G111" s="35" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14153,35 +16203,35 @@
     </row>
     <row r="115" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="32" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B115" s="34" t="s">
         <v>297</v>
       </c>
       <c r="G115" s="32" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H115" s="32" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="32" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B116" s="34" t="s">
         <v>297</v>
       </c>
       <c r="G116" s="36" t="s">
+        <v>766</v>
+      </c>
+      <c r="H116" s="36" t="s">
         <v>767</v>
-      </c>
-      <c r="H116" s="36" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="32" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B117" s="34" t="s">
         <v>297</v>
@@ -14217,38 +16267,38 @@
         <v>354</v>
       </c>
       <c r="G120" s="37" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H120" s="37" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="32" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B121" s="31" t="s">
         <v>354</v>
       </c>
       <c r="G121" s="32" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H121" s="32" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="32" t="s">
+        <v>737</v>
+      </c>
+      <c r="B122" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G122" s="32" t="s">
         <v>738</v>
       </c>
-      <c r="B122" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="G122" s="32" t="s">
+      <c r="H122" s="32" t="s">
         <v>739</v>
-      </c>
-      <c r="H122" s="32" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14281,10 +16331,10 @@
         <v>354</v>
       </c>
       <c r="G125" s="39" t="s">
+        <v>770</v>
+      </c>
+      <c r="H125" s="37" t="s">
         <v>771</v>
-      </c>
-      <c r="H125" s="37" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14295,10 +16345,10 @@
         <v>354</v>
       </c>
       <c r="G126" s="32" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H126" s="32" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14309,10 +16359,10 @@
         <v>354</v>
       </c>
       <c r="G127" s="39" t="s">
+        <v>776</v>
+      </c>
+      <c r="H127" s="39" t="s">
         <v>777</v>
-      </c>
-      <c r="H127" s="39" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14363,35 +16413,35 @@
     </row>
     <row r="132" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="32" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B132" s="31" t="s">
         <v>354</v>
       </c>
       <c r="G132" s="32" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H132" s="32" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="32" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B133" s="31" t="s">
         <v>354</v>
       </c>
       <c r="G133" s="38" t="s">
+        <v>774</v>
+      </c>
+      <c r="H133" s="38" t="s">
         <v>775</v>
-      </c>
-      <c r="H133" s="38" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="32" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B134" s="31" t="s">
         <v>354</v>
@@ -14423,30 +16473,30 @@
     </row>
     <row r="137" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="32" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B137" s="31" t="s">
         <v>354</v>
       </c>
       <c r="G137" s="32" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H137" s="32" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="32" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B138" s="31" t="s">
         <v>354</v>
       </c>
       <c r="G138" s="38" t="s">
+        <v>778</v>
+      </c>
+      <c r="H138" s="38" t="s">
         <v>779</v>
-      </c>
-      <c r="H138" s="38" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14459,38 +16509,38 @@
     </row>
     <row r="140" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="42" t="s">
+        <v>790</v>
+      </c>
+      <c r="B140" s="34" t="s">
         <v>791</v>
       </c>
-      <c r="B140" s="34" t="s">
-        <v>792</v>
-      </c>
       <c r="G140" s="42" t="s">
+        <v>793</v>
+      </c>
+      <c r="H140" s="10" t="s">
         <v>794</v>
-      </c>
-      <c r="H140" s="10" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="42" t="s">
+        <v>795</v>
+      </c>
+      <c r="B141" s="34" t="s">
+        <v>791</v>
+      </c>
+      <c r="G141" s="42" t="s">
         <v>796</v>
       </c>
-      <c r="B141" s="34" t="s">
-        <v>792</v>
-      </c>
-      <c r="G141" s="42" t="s">
+      <c r="H141" s="10" t="s">
         <v>797</v>
-      </c>
-      <c r="H141" s="10" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="42" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B142" s="34" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14514,11 +16564,11 @@
       <c r="B144" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="G144" s="36" t="s">
+      <c r="G144" s="48" t="s">
+        <v>772</v>
+      </c>
+      <c r="H144" s="48" t="s">
         <v>773</v>
-      </c>
-      <c r="H144" s="36" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14543,10 +16593,10 @@
         <v>354</v>
       </c>
       <c r="G146" s="38" t="s">
+        <v>780</v>
+      </c>
+      <c r="H146" s="8" t="s">
         <v>781</v>
-      </c>
-      <c r="H146" s="8" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14579,7 +16629,7 @@
         <v>354</v>
       </c>
       <c r="G149" s="38" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>566</v>
@@ -14587,35 +16637,35 @@
     </row>
     <row r="150" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="32" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B150" s="31" t="s">
         <v>354</v>
       </c>
       <c r="G150" s="32" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H150" s="32" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="32" t="s">
+        <v>746</v>
+      </c>
+      <c r="B151" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G151" s="38" t="s">
+        <v>783</v>
+      </c>
+      <c r="H151" s="8" t="s">
         <v>747</v>
-      </c>
-      <c r="B151" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="G151" s="38" t="s">
-        <v>784</v>
-      </c>
-      <c r="H151" s="8" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="40" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B152" s="31" t="s">
         <v>354</v>
@@ -14645,43 +16695,43 @@
         <v>354</v>
       </c>
       <c r="G154" s="38" t="s">
+        <v>784</v>
+      </c>
+      <c r="H154" s="38" t="s">
         <v>785</v>
-      </c>
-      <c r="H154" s="38" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="32" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B155" s="31" t="s">
         <v>354</v>
       </c>
       <c r="G155" s="32" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H155" s="32" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="32" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B156" s="31" t="s">
         <v>354</v>
       </c>
       <c r="G156" s="38" t="s">
+        <v>786</v>
+      </c>
+      <c r="H156" s="38" t="s">
         <v>787</v>
-      </c>
-      <c r="H156" s="38" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="32" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B157" s="31" t="s">
         <v>354</v>
@@ -14718,11 +16768,11 @@
       <c r="B161" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="G161" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>577</v>
+      <c r="G161" s="48" t="s">
+        <v>939</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14732,6 +16782,2952 @@
       <c r="B162" s="31" t="s">
         <v>354</v>
       </c>
+      <c r="G162" s="48" t="s">
+        <v>946</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="48" t="s">
+        <v>944</v>
+      </c>
+      <c r="B163" s="34" t="s">
+        <v>945</v>
+      </c>
+      <c r="G163" s="48" t="s">
+        <v>947</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B164" s="31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B165" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B166" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G166" s="48" t="s">
+        <v>939</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B167" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B168" s="31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B169" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B170" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G170" s="48" t="s">
+        <v>939</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B171" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B172" s="31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B173" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B174" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G174" s="48" t="s">
+        <v>939</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B175" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B176" s="31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B177" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B178" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G178" s="48" t="s">
+        <v>939</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B179" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B180" s="31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B181" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B182" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G182" s="48" t="s">
+        <v>939</v>
+      </c>
+      <c r="H182" s="5" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B183" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B184" s="31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B185" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B186" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G186" s="48" t="s">
+        <v>939</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B187" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="H187" s="48" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B188" s="31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B190" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B191" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B192" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G192" s="48" t="s">
+        <v>851</v>
+      </c>
+      <c r="H192" s="5" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B193" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B194" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="H194" s="5" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B195" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B196" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G196" s="48" t="s">
+        <v>852</v>
+      </c>
+      <c r="H196" s="5" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="48" t="s">
+        <v>853</v>
+      </c>
+      <c r="B197" s="34" t="s">
+        <v>854</v>
+      </c>
+      <c r="G197" s="48" t="s">
+        <v>855</v>
+      </c>
+      <c r="H197" s="5" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B198" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B199" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="H199" s="5" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B200" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B201" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B202" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B203" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B204" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G204" s="48" t="s">
+        <v>869</v>
+      </c>
+      <c r="H204" s="5" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B205" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B206" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G206" s="48" t="s">
+        <v>868</v>
+      </c>
+      <c r="H206" s="5" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B207" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B208" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G208" s="48" t="s">
+        <v>864</v>
+      </c>
+      <c r="H208" s="5" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B209" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B210" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G210" s="48" t="s">
+        <v>866</v>
+      </c>
+      <c r="H210" s="5" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B211" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B212" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B213" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B214" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B215" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B217" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B218" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B219" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="48" t="s">
+        <v>893</v>
+      </c>
+      <c r="B220" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G220" s="48" t="s">
+        <v>890</v>
+      </c>
+      <c r="H220" s="10" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="48" t="s">
+        <v>892</v>
+      </c>
+      <c r="B221" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G221" s="48" t="s">
+        <v>894</v>
+      </c>
+      <c r="H221" s="62" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="43"/>
+    </row>
+    <row r="223" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B223" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B224" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="H224" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B225" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B226" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B228" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="H228" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B229" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G229" s="32" t="s">
+        <v>710</v>
+      </c>
+      <c r="H229" s="7" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B230" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="H230" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H229"/>
+  <sheetViews>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" style="31" customWidth="1"/>
+    <col min="3" max="6" width="0" style="31" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="36.19921875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>752</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>752</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>752</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="46" t="s">
+        <v>806</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>809</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>811</v>
+      </c>
+      <c r="H20" s="59" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="s">
+        <v>807</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>809</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>811</v>
+      </c>
+      <c r="H23" s="59" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
+        <v>808</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>809</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>811</v>
+      </c>
+      <c r="H26" s="59" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>872</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>873</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>872</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>874</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G32" s="48" t="s">
+        <v>872</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="43" t="s">
+        <v>799</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="G35" s="43" t="s">
+        <v>801</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
+        <v>798</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
+        <v>708</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>757</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="48" t="s">
+        <v>883</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G38" s="48" t="s">
+        <v>887</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="32" t="s">
+        <v>709</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>757</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="48" t="s">
+        <v>884</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G40" s="48" t="s">
+        <v>887</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="32" t="s">
+        <v>722</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>757</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="s">
+        <v>885</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G42" s="48" t="s">
+        <v>887</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="32" t="s">
+        <v>723</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="48" t="s">
+        <v>911</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G44" s="48" t="s">
+        <v>915</v>
+      </c>
+      <c r="H44" s="48" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="32" t="s">
+        <v>724</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="32" t="s">
+        <v>725</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G46" s="48" t="s">
+        <v>917</v>
+      </c>
+      <c r="H46" s="48" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="32" t="s">
+        <v>726</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="32" t="s">
+        <v>727</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G48" s="48" t="s">
+        <v>919</v>
+      </c>
+      <c r="H48" s="48" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="32" t="s">
+        <v>880</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G49" s="48" t="s">
+        <v>843</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="48" t="s">
+        <v>898</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G50" s="48" t="s">
+        <v>902</v>
+      </c>
+      <c r="H50" s="48" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="32" t="s">
+        <v>881</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G51" s="48" t="s">
+        <v>843</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="48" t="s">
+        <v>899</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>902</v>
+      </c>
+      <c r="H52" s="48" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="32" t="s">
+        <v>882</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G53" s="48" t="s">
+        <v>843</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="48" t="s">
+        <v>900</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G54" s="48" t="s">
+        <v>902</v>
+      </c>
+      <c r="H54" s="48" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G63" s="48" t="s">
+        <v>888</v>
+      </c>
+      <c r="H63" s="61" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G75" s="35" t="s">
+        <v>758</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G82" s="36" t="s">
+        <v>763</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B94" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B96" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G96" s="44" t="s">
+        <v>803</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B99" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B100" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B103" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G103" s="36" t="s">
+        <v>765</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B106" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B107" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B108" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B109" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B110" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B111" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G111" s="35" t="s">
+        <v>762</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B113" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B114" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="32" t="s">
+        <v>732</v>
+      </c>
+      <c r="B115" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="G115" s="32" t="s">
+        <v>734</v>
+      </c>
+      <c r="H115" s="32" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="32" t="s">
+        <v>733</v>
+      </c>
+      <c r="B116" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="G116" s="36" t="s">
+        <v>766</v>
+      </c>
+      <c r="H116" s="36" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="B117" s="34" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B118" s="31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B119" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B120" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G120" s="37" t="s">
+        <v>769</v>
+      </c>
+      <c r="H120" s="37" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="32" t="s">
+        <v>736</v>
+      </c>
+      <c r="B121" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G121" s="32" t="s">
+        <v>734</v>
+      </c>
+      <c r="H121" s="32" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="32" t="s">
+        <v>737</v>
+      </c>
+      <c r="B122" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G122" s="32" t="s">
+        <v>738</v>
+      </c>
+      <c r="H122" s="32" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B123" s="31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B124" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B125" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G125" s="39" t="s">
+        <v>770</v>
+      </c>
+      <c r="H125" s="37" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B126" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G126" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="H126" s="32" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B127" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G127" s="39" t="s">
+        <v>776</v>
+      </c>
+      <c r="H127" s="39" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B128" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G128" s="37"/>
+      <c r="H128" s="37"/>
+    </row>
+    <row r="129" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B129" s="31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B130" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B131" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="B132" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G132" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="H132" s="32" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="B133" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G133" s="38" t="s">
+        <v>774</v>
+      </c>
+      <c r="H133" s="38" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="32" t="s">
+        <v>740</v>
+      </c>
+      <c r="B134" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G134" s="32"/>
+      <c r="H134" s="8"/>
+    </row>
+    <row r="135" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B135" s="31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B136" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="B137" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G137" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="H137" s="32" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="32" t="s">
+        <v>744</v>
+      </c>
+      <c r="B138" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G138" s="38" t="s">
+        <v>778</v>
+      </c>
+      <c r="H138" s="38" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B139" s="31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="42" t="s">
+        <v>790</v>
+      </c>
+      <c r="B140" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="G140" s="42" t="s">
+        <v>719</v>
+      </c>
+      <c r="H140" s="10" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="42" t="s">
+        <v>795</v>
+      </c>
+      <c r="B141" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="G141" s="42" t="s">
+        <v>796</v>
+      </c>
+      <c r="H141" s="10" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="42" t="s">
+        <v>792</v>
+      </c>
+      <c r="B142" s="34" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B143" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B144" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G144" s="48" t="s">
+        <v>772</v>
+      </c>
+      <c r="H144" s="48" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B145" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B146" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G146" s="38" t="s">
+        <v>780</v>
+      </c>
+      <c r="H146" s="8" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B147" s="31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B148" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B149" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G149" s="38" t="s">
+        <v>782</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="32" t="s">
+        <v>745</v>
+      </c>
+      <c r="B150" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G150" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="H150" s="32" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="32" t="s">
+        <v>746</v>
+      </c>
+      <c r="B151" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G151" s="38" t="s">
+        <v>783</v>
+      </c>
+      <c r="H151" s="8" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="40" t="s">
+        <v>789</v>
+      </c>
+      <c r="B152" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G152" s="32"/>
+      <c r="H152" s="8"/>
+    </row>
+    <row r="153" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B153" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B154" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G154" s="38" t="s">
+        <v>784</v>
+      </c>
+      <c r="H154" s="38" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="32" t="s">
+        <v>748</v>
+      </c>
+      <c r="B155" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G155" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="H155" s="32" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="32" t="s">
+        <v>749</v>
+      </c>
+      <c r="B156" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G156" s="38" t="s">
+        <v>786</v>
+      </c>
+      <c r="H156" s="38" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="32" t="s">
+        <v>750</v>
+      </c>
+      <c r="B157" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G157" s="32"/>
+      <c r="H157" s="32"/>
+    </row>
+    <row r="158" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B158" s="31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B160" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B161" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B162" s="31" t="s">
+        <v>354</v>
+      </c>
       <c r="G162" s="2" t="s">
         <v>579</v>
       </c>
@@ -15083,10 +20079,10 @@
         <v>354</v>
       </c>
       <c r="G191" s="48" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15114,7 +20110,7 @@
         <v>639</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15139,24 +20135,24 @@
         <v>354</v>
       </c>
       <c r="G195" s="48" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="48" t="s">
+        <v>853</v>
+      </c>
+      <c r="B196" s="34" t="s">
+        <v>854</v>
+      </c>
+      <c r="G196" s="48" t="s">
         <v>855</v>
       </c>
-      <c r="B196" s="34" t="s">
+      <c r="H196" s="5" t="s">
         <v>856</v>
-      </c>
-      <c r="G196" s="48" t="s">
-        <v>857</v>
-      </c>
-      <c r="H196" s="5" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15184,7 +20180,7 @@
         <v>648</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15251,10 +20247,10 @@
         <v>354</v>
       </c>
       <c r="G203" s="48" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15279,10 +20275,10 @@
         <v>354</v>
       </c>
       <c r="G205" s="48" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15307,10 +20303,10 @@
         <v>354</v>
       </c>
       <c r="G207" s="48" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15335,10 +20331,10 @@
         <v>354</v>
       </c>
       <c r="G209" s="48" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15455,30 +20451,30 @@
     </row>
     <row r="219" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="48" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B219" s="31" t="s">
         <v>354</v>
       </c>
       <c r="G219" s="48" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H219" s="10" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="48" t="s">
+        <v>892</v>
+      </c>
+      <c r="B220" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G220" s="48" t="s">
         <v>894</v>
       </c>
-      <c r="B220" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="G220" s="48" t="s">
-        <v>896</v>
-      </c>
       <c r="H220" s="62" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
